--- a/results/bayestraits.xlsx
+++ b/results/bayestraits.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="30220" yWindow="0" windowWidth="17380" windowHeight="26320" tabRatio="500"/>
+    <workbookView xWindow="30220" yWindow="0" windowWidth="17380" windowHeight="26320" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="bayestraits.txt" sheetId="6" r:id="rId1"/>
+    <sheet name="NO_multiple_transitions" sheetId="6" r:id="rId1"/>
+    <sheet name="WITH_multiple_transitions" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
   <si>
     <t>root=0011</t>
   </si>
@@ -221,8 +222,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -267,7 +272,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="21">
+  <cellStyles count="25">
     <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Gevolgde hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Gevolgde hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -278,6 +283,8 @@
     <cellStyle name="Gevolgde hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Gevolgde hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Gevolgde hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -288,6 +295,8 @@
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normaal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -619,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -885,4 +894,190 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>-664.77076899999997</v>
+      </c>
+      <c r="D2">
+        <v>-662.29419600000006</v>
+      </c>
+      <c r="F2">
+        <v>-663.30705499999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>-663.46850300000006</v>
+      </c>
+      <c r="D3" s="3">
+        <v>-662.06166399999995</v>
+      </c>
+      <c r="F3">
+        <v>-663.63435500000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>-667.55754899999999</v>
+      </c>
+      <c r="D4" s="2">
+        <v>-672.48490700000002</v>
+      </c>
+      <c r="F4" s="2">
+        <v>-666.70777499999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>-664.62993300000005</v>
+      </c>
+      <c r="D5">
+        <v>-663.19893100000002</v>
+      </c>
+      <c r="F5" s="3">
+        <v>-662.00431500000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>-665.13557600000001</v>
+      </c>
+      <c r="D6">
+        <v>-663.58093099999996</v>
+      </c>
+      <c r="F6">
+        <v>-662.67449099999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>-660.13231900000005</v>
+      </c>
+      <c r="D7">
+        <v>-661.41868299999999</v>
+      </c>
+      <c r="F7">
+        <v>-661.05427299999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>-664.32294400000001</v>
+      </c>
+      <c r="D8">
+        <v>-663.65539899999999</v>
+      </c>
+      <c r="F8">
+        <v>-664.51702</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3">
+        <v>-659.51610900000003</v>
+      </c>
+      <c r="D9" s="3">
+        <v>-660.85774500000002</v>
+      </c>
+      <c r="F9" s="3">
+        <v>-660.50784699999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2">
+        <v>-669.21051699999998</v>
+      </c>
+      <c r="D10" s="2">
+        <v>-667.69435999999996</v>
+      </c>
+      <c r="F10" s="2">
+        <v>-668.10601599999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11">
+        <v>-660.14573399999995</v>
+      </c>
+      <c r="D11">
+        <v>-658.40720799999997</v>
+      </c>
+      <c r="F11">
+        <v>-663.32079999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/results/bayestraits.xlsx
+++ b/results/bayestraits.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="30220" yWindow="0" windowWidth="17380" windowHeight="26320" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="23760" yWindow="0" windowWidth="17380" windowHeight="26320" tabRatio="821" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NO_multiple_transitions" sheetId="6" r:id="rId1"/>
     <sheet name="WITH_multiple_transitions" sheetId="7" r:id="rId2"/>
+    <sheet name="qmatrix.constrained.tsv" sheetId="9" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="28">
   <si>
     <t>root=0011</t>
   </si>
@@ -64,91 +65,56 @@
     <t>rate(1100=&gt;1110)=0</t>
   </si>
   <si>
-    <t>2.28*</t>
-  </si>
-  <si>
-    <t>11.67***</t>
-  </si>
-  <si>
-    <t>23.18***</t>
-  </si>
-  <si>
-    <t>6.51**</t>
-  </si>
-  <si>
-    <t>2.01*</t>
-  </si>
-  <si>
-    <t>9.71**</t>
-  </si>
-  <si>
-    <t>2.96*</t>
-  </si>
-  <si>
-    <t>6.43**</t>
-  </si>
-  <si>
-    <t>14.28***</t>
-  </si>
-  <si>
-    <t>4.25*</t>
-  </si>
-  <si>
-    <t>28.10***</t>
-  </si>
-  <si>
-    <t>3.78*</t>
-  </si>
-  <si>
-    <t>10.68***</t>
-  </si>
-  <si>
-    <t>16.13***</t>
-  </si>
-  <si>
-    <t>LBF-run1</t>
-  </si>
-  <si>
-    <t>LBF-run2</t>
-  </si>
-  <si>
-    <t>LBF-run3</t>
-  </si>
-  <si>
-    <t>2.29*</t>
-  </si>
-  <si>
-    <t>13.20***</t>
-  </si>
-  <si>
-    <t>3.06*</t>
-  </si>
-  <si>
-    <t>29.45***</t>
-  </si>
-  <si>
-    <t>10.53***</t>
-  </si>
-  <si>
-    <t>11.49***</t>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>GM</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>BG</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>ABM</t>
+  </si>
+  <si>
+    <t>ABG</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
@@ -165,18 +131,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF008000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF3366FF"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -224,53 +178,39 @@
   </borders>
   <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="25">
     <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -626,263 +566,251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="7"/>
-    <col min="5" max="5" width="10.83203125" style="10"/>
-    <col min="7" max="7" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>28</v>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>29</v>
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>-650.572766</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="C2" s="2">
         <v>-649.615048</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="3">
+      <c r="D2" s="2">
         <v>-648.74335399999995</v>
       </c>
-      <c r="G2" s="7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="E2">
+        <f>MAX(B2,C2,D2)</f>
+        <v>-648.74335399999995</v>
+      </c>
+      <c r="F2">
+        <f>2*ABS(E2-E$11)</f>
+        <v>1.2139239999999063</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>-650.33507299999997</v>
       </c>
-      <c r="C3" s="7">
-        <v>1.81</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="2">
         <v>-651.353793</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>21</v>
+      <c r="D3" s="2">
+        <v>-649.68785700000001</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E11" si="0">MAX(B3,C3,D3)</f>
+        <v>-649.68785700000001</v>
       </c>
       <c r="F3">
-        <v>-649.68785700000001</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <f t="shared" ref="F3:F10" si="1">2*ABS(E3-E$11)</f>
+        <v>3.1029300000000148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>-655.265714</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>15</v>
+      <c r="C4" s="2">
+        <v>-655.27821200000005</v>
       </c>
       <c r="D4" s="2">
-        <v>-655.27821200000005</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="2">
         <v>-655.09283600000003</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="E4">
+        <f t="shared" si="0"/>
+        <v>-655.09283600000003</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>13.912888000000066</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>-650.19513400000005</v>
       </c>
-      <c r="C5" s="7">
-        <v>1.53</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="C5" s="2">
         <v>-650.25933499999996</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>23</v>
+      <c r="D5" s="2">
+        <v>-650.02672199999995</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>-650.02672199999995</v>
       </c>
       <c r="F5">
-        <v>-650.02672199999995</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <f t="shared" si="1"/>
+        <v>3.780659999999898</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2">
         <v>-661.02306699999997</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>16</v>
+      <c r="C6" s="2">
+        <v>-662.18570999999997</v>
       </c>
       <c r="D6" s="2">
-        <v>-662.18570999999997</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="2">
         <v>-663.22144000000003</v>
       </c>
-      <c r="G6" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>-661.02306699999997</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>25.773349999999937</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>-649.477486</v>
       </c>
-      <c r="C7" s="7">
-        <v>0.09</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="2">
         <v>-650.02417300000002</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>25</v>
+      <c r="D7" s="2">
+        <v>-649.35290099999997</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>-649.35290099999997</v>
       </c>
       <c r="F7">
-        <v>-649.35290099999997</v>
-      </c>
-      <c r="G7" s="7">
-        <v>1.72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <f t="shared" si="1"/>
+        <v>2.4330179999999473</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>-652.63401199999998</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8">
+      <c r="C8" s="2">
         <v>-653.47824000000003</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>26</v>
+      <c r="D8" s="2">
+        <v>-653.76050699999996</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>-652.63401199999998</v>
       </c>
       <c r="F8">
-        <v>-653.76050699999996</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <f t="shared" si="1"/>
+        <v>8.995239999999967</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>-648.42866400000003</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="C9" s="2">
         <v>-648.49798099999998</v>
       </c>
-      <c r="E9" s="10">
-        <v>0.72</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="D9" s="2">
         <v>-648.26064099999996</v>
       </c>
-      <c r="G9" s="7">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>-648.26064099999996</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0.24849799999992683</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>13</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>-654.284808</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10">
+      <c r="C10" s="2">
         <v>-656.20352600000001</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>27</v>
+      <c r="D10" s="2">
+        <v>-654.24038299999995</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>-654.24038299999995</v>
       </c>
       <c r="F10">
-        <v>-654.24038299999995</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <f t="shared" si="1"/>
+        <v>12.207981999999902</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="2">
         <v>-649.43148499999995</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="5">
+      <c r="C11" s="2">
         <v>-648.136392</v>
       </c>
-      <c r="F11" s="5">
+      <c r="D11" s="2">
         <v>-648.49476800000002</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>-648.136392</v>
       </c>
     </row>
   </sheetData>
@@ -898,178 +826,726 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="1" max="1" width="19" style="2" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="E1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>-664.77076899999997</v>
       </c>
-      <c r="D2">
+      <c r="C2" s="2">
         <v>-662.29419600000006</v>
       </c>
-      <c r="F2">
+      <c r="D2" s="2">
         <v>-663.30705499999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
+      <c r="E2" s="2">
+        <f>MAX(B2,C2,D2)</f>
+        <v>-662.29419600000006</v>
+      </c>
+      <c r="F2" s="2">
+        <f>2*ABS(E2-E$11)</f>
+        <v>7.7739760000001752</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>-663.46850300000006</v>
       </c>
-      <c r="D3" s="3">
+      <c r="C3" s="2">
         <v>-662.06166399999995</v>
       </c>
-      <c r="F3">
+      <c r="D3" s="2">
         <v>-663.63435500000003</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
+      <c r="E3" s="2">
+        <f t="shared" ref="E3:E11" si="0">MAX(B3,C3,D3)</f>
+        <v>-662.06166399999995</v>
+      </c>
+      <c r="F3" s="2">
+        <f t="shared" ref="F3:F10" si="1">2*ABS(E3-E$11)</f>
+        <v>7.3089119999999639</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>-667.55754899999999</v>
       </c>
+      <c r="C4" s="2">
+        <v>-672.48490700000002</v>
+      </c>
       <c r="D4" s="2">
-        <v>-672.48490700000002</v>
+        <v>-666.70777499999997</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="0"/>
+        <v>-666.70777499999997</v>
       </c>
       <c r="F4" s="2">
-        <v>-666.70777499999997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
+        <f t="shared" si="1"/>
+        <v>16.601134000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>-664.62993300000005</v>
       </c>
-      <c r="D5">
+      <c r="C5" s="2">
         <v>-663.19893100000002</v>
       </c>
-      <c r="F5" s="3">
+      <c r="D5" s="2">
         <v>-662.00431500000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
+      <c r="E5" s="2">
+        <f t="shared" si="0"/>
+        <v>-662.00431500000002</v>
+      </c>
+      <c r="F5" s="2">
+        <f t="shared" si="1"/>
+        <v>7.1942140000001018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>-665.13557600000001</v>
       </c>
-      <c r="D6">
+      <c r="C6" s="2">
         <v>-663.58093099999996</v>
       </c>
-      <c r="F6">
+      <c r="D6" s="2">
         <v>-662.67449099999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
+      <c r="E6" s="2">
+        <f t="shared" si="0"/>
+        <v>-662.67449099999999</v>
+      </c>
+      <c r="F6" s="2">
+        <f t="shared" si="1"/>
+        <v>8.5345660000000407</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>-660.13231900000005</v>
       </c>
-      <c r="D7">
+      <c r="C7" s="2">
         <v>-661.41868299999999</v>
       </c>
-      <c r="F7">
+      <c r="D7" s="2">
         <v>-661.05427299999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
+      <c r="E7" s="2">
+        <f t="shared" si="0"/>
+        <v>-660.13231900000005</v>
+      </c>
+      <c r="F7" s="2">
+        <f t="shared" si="1"/>
+        <v>3.4502220000001671</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>-664.32294400000001</v>
       </c>
-      <c r="D8">
+      <c r="C8" s="2">
         <v>-663.65539899999999</v>
       </c>
-      <c r="F8">
+      <c r="D8" s="2">
         <v>-664.51702</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>-663.65539899999999</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="1"/>
+        <v>10.49638200000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="2">
         <v>-659.51610900000003</v>
       </c>
-      <c r="D9" s="3">
+      <c r="C9" s="2">
         <v>-660.85774500000002</v>
       </c>
-      <c r="F9" s="3">
+      <c r="D9" s="2">
         <v>-660.50784699999997</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>-659.51610900000003</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="1"/>
+        <v>2.2178020000001197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="2">
         <v>-669.21051699999998</v>
       </c>
+      <c r="C10" s="2">
+        <v>-667.69435999999996</v>
+      </c>
       <c r="D10" s="2">
+        <v>-668.10601599999995</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="0"/>
         <v>-667.69435999999996</v>
       </c>
       <c r="F10" s="2">
-        <v>-668.10601599999995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
+        <f t="shared" si="1"/>
+        <v>18.574303999999984</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>-660.14573399999995</v>
       </c>
-      <c r="D11">
+      <c r="C11" s="2">
         <v>-658.40720799999997</v>
       </c>
-      <c r="F11">
+      <c r="D11" s="2">
         <v>-663.32079999999996</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="0"/>
+        <v>-658.40720799999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="4"/>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>9.0794951515151601E-2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2">
+        <v>2.93152353535353E-2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2">
+        <v>0.66233993434343497</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2">
+        <v>1.3257918434343401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>0.43601821919191902</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>1.2261031545454499</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3">
+        <v>0.942121758585859</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>0.61282780303030404</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>3.6529808858585899</v>
+      </c>
+      <c r="F4">
+        <v>0.61369334343434401</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4">
+        <v>5.4364500919191903</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>29.028378786868601</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5">
+        <v>0.76286332222222197</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5">
+        <v>3.4546711848484901</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>24.560977067676699</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>17.992115737373801</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>28.763895179797899</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7">
+        <v>3.71185517777778</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>0.160250067676768</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>1.34494465757576</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8">
+        <v>0.17809371919191899</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>5.0873749686868797</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9">
+        <v>6.4442718878787897</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9">
+        <v>3.93277963232324</v>
+      </c>
+      <c r="K9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>0.16635295555555499</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10">
+        <v>0.17781724848484801</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10">
+        <v>0.17809371919191899</v>
+      </c>
+      <c r="J10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10">
+        <v>3.02837676767677E-3</v>
+      </c>
+      <c r="L10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11">
+        <v>2.0338092868686899</v>
+      </c>
+      <c r="K11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11">
+        <v>6.4217964363636399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>4.9142871303030304</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12">
+        <v>6.9291569868686897</v>
+      </c>
+      <c r="L12" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/results/bayestraits.xlsx
+++ b/results/bayestraits.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="23760" yWindow="0" windowWidth="17380" windowHeight="26320" tabRatio="821" activeTab="2"/>
+    <workbookView xWindow="25660" yWindow="0" windowWidth="17380" windowHeight="26320" tabRatio="821"/>
   </bookViews>
   <sheets>
     <sheet name="NO_multiple_transitions" sheetId="6" r:id="rId1"/>
@@ -568,7 +568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1088,11 +1088,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="6" max="7" width="0" hidden="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="4"/>
@@ -1282,7 +1285,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" hidden="1">
       <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
@@ -1320,7 +1323,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" hidden="1">
       <c r="A7" s="4" t="s">
         <v>23</v>
       </c>

--- a/results/bayestraits.xlsx
+++ b/results/bayestraits.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="25660" yWindow="0" windowWidth="17380" windowHeight="26320" tabRatio="821"/>
+    <workbookView xWindow="32440" yWindow="0" windowWidth="17380" windowHeight="26320" tabRatio="821" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="NO_multiple_transitions" sheetId="6" r:id="rId1"/>
     <sheet name="WITH_multiple_transitions" sheetId="7" r:id="rId2"/>
     <sheet name="qmatrix.constrained.tsv" sheetId="9" r:id="rId3"/>
+    <sheet name="RATES_TO_SINGLE" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="37">
   <si>
     <t>root=0011</t>
   </si>
@@ -105,6 +106,33 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>LH-run1</t>
+  </si>
+  <si>
+    <t>LH-run2</t>
+  </si>
+  <si>
+    <t>LH-run3</t>
+  </si>
+  <si>
+    <t>Constraint</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>0000-&gt;1000=0</t>
+  </si>
+  <si>
+    <t>0000-&gt;0100=0</t>
+  </si>
+  <si>
+    <t>0000-&gt;0010=0</t>
+  </si>
+  <si>
+    <t>0000-&gt;0001=0</t>
   </si>
 </sst>
 </file>
@@ -568,7 +596,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -829,7 +857,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1089,466 +1117,606 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:G1048576"/>
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="20" customHeight="1">
+      <c r="A1" s="4"/>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="20" customHeight="1">
+      <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>9.0794951515151601E-2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2">
+        <v>2.93152353535353E-2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2">
+        <v>0.66233993434343497</v>
+      </c>
+      <c r="K2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2">
+        <v>1.3257918434343401</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="20" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>0.43601821919191902</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>1.2261031545454499</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3">
+        <v>0.942121758585859</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="20" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>0.61282780303030404</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>3.6529808858585899</v>
+      </c>
+      <c r="F4">
+        <v>0.61369334343434401</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4">
+        <v>5.4364500919191903</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="20" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>29.028378786868601</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5">
+        <v>0.76286332222222197</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5">
+        <v>3.4546711848484901</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="20" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>24.560977067676699</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="20" customHeight="1">
+      <c r="A7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>17.992115737373801</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>28.763895179797899</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7">
+        <v>3.71185517777778</v>
+      </c>
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="20" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>0.160250067676768</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>1.34494465757576</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8">
+        <v>0.17809371919191899</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="20" customHeight="1">
+      <c r="A9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>5.0873749686868797</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9">
+        <v>6.4442718878787897</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9">
+        <v>3.93277963232324</v>
+      </c>
+      <c r="K9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="20" customHeight="1">
+      <c r="A10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>0.16635295555555499</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10">
+        <v>0.17781724848484801</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10">
+        <v>0.17809371919191899</v>
+      </c>
+      <c r="J10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10">
+        <v>3.02837676767677E-3</v>
+      </c>
+      <c r="L10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="20" customHeight="1">
+      <c r="A11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11">
+        <v>2.0338092868686899</v>
+      </c>
+      <c r="K11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L11">
+        <v>6.4217964363636399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="20" customHeight="1">
+      <c r="A12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12">
+        <v>4.9142871303030304</v>
+      </c>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12">
+        <v>6.9291569868686897</v>
+      </c>
+      <c r="L12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="6" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" s="4"/>
+    <row r="1" spans="1:6" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2">
+        <v>-632.51566800000001</v>
       </c>
       <c r="C2">
-        <v>9.0794951515151601E-2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2">
-        <v>2.93152353535353E-2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2">
-        <v>0.66233993434343497</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2">
-        <v>1.3257918434343401</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="4" t="s">
-        <v>27</v>
+        <v>-631.54291599999999</v>
+      </c>
+      <c r="D2">
+        <v>-632.81776100000002</v>
+      </c>
+      <c r="E2">
+        <f>MAX(B2:D2)</f>
+        <v>-631.54291599999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="B3">
-        <v>0.43601821919191902</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>1.2261031545454499</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3">
-        <v>0.942121758585859</v>
-      </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
+        <v>-630.67890199999999</v>
+      </c>
+      <c r="C3">
+        <v>-632.05072800000005</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E6" si="0">MAX(B3:D3)</f>
+        <v>-630.67890199999999</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F5" si="1">2*(E$2-E3)</f>
+        <v>-1.7280279999999948</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>-629.17605800000001</v>
       </c>
       <c r="C4">
-        <v>0.61282780303030404</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
+        <v>-631.08573999999999</v>
       </c>
       <c r="E4">
-        <v>3.6529808858585899</v>
+        <f t="shared" si="0"/>
+        <v>-629.17605800000001</v>
       </c>
       <c r="F4">
-        <v>0.61369334343434401</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4">
-        <v>5.4364500919191903</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
+        <f t="shared" si="1"/>
+        <v>-4.7337159999999585</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>-633.47899099999995</v>
+      </c>
+      <c r="C5">
+        <v>-633.84900400000004</v>
       </c>
       <c r="D5">
-        <v>29.028378786868601</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5">
-        <v>0.76286332222222197</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I5">
-        <v>3.4546711848484901</v>
-      </c>
-      <c r="J5" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" hidden="1">
-      <c r="A6" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
+        <v>-634.83378600000003</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>-633.47899099999995</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>3.8721499999999196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6">
+        <v>-638.63682800000004</v>
+      </c>
+      <c r="C6">
+        <v>-638.36295399999995</v>
       </c>
       <c r="D6">
-        <v>24.560977067676699</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" hidden="1">
-      <c r="A7" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7">
-        <v>17.992115737373801</v>
-      </c>
-      <c r="D7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7">
-        <v>28.763895179797899</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7">
-        <v>3.71185517777778</v>
-      </c>
-      <c r="K7" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8">
-        <v>0.160250067676768</v>
-      </c>
-      <c r="C8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8">
-        <v>1.34494465757576</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8">
-        <v>0.17809371919191899</v>
-      </c>
-      <c r="J8" t="s">
-        <v>17</v>
-      </c>
-      <c r="K8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9">
-        <v>5.0873749686868797</v>
-      </c>
-      <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9">
-        <v>6.4442718878787897</v>
-      </c>
-      <c r="I9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9">
-        <v>3.93277963232324</v>
-      </c>
-      <c r="K9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10">
-        <v>0.16635295555555499</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10">
-        <v>0.17781724848484801</v>
-      </c>
-      <c r="H10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10">
-        <v>0.17809371919191899</v>
-      </c>
-      <c r="J10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10">
-        <v>3.02837676767677E-3</v>
-      </c>
-      <c r="L10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11">
-        <v>2.0338092868686899</v>
-      </c>
-      <c r="K11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11">
-        <v>6.4217964363636399</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12">
-        <v>4.9142871303030304</v>
-      </c>
-      <c r="C12" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" t="s">
-        <v>17</v>
-      </c>
-      <c r="I12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" t="s">
-        <v>17</v>
-      </c>
-      <c r="K12">
-        <v>6.9291569868686897</v>
-      </c>
-      <c r="L12" t="s">
-        <v>16</v>
+        <v>-639.758555</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>-638.36295399999995</v>
+      </c>
+      <c r="F6">
+        <f>2*(E$2-E6)</f>
+        <v>13.640075999999908</v>
       </c>
     </row>
   </sheetData>

--- a/results/bayestraits.xlsx
+++ b/results/bayestraits.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="32440" yWindow="0" windowWidth="17380" windowHeight="26320" tabRatio="821" activeTab="3"/>
+    <workbookView xWindow="32440" yWindow="0" windowWidth="17380" windowHeight="26320" tabRatio="821" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="NO_multiple_transitions" sheetId="6" r:id="rId1"/>
     <sheet name="WITH_multiple_transitions" sheetId="7" r:id="rId2"/>
-    <sheet name="qmatrix.constrained.tsv" sheetId="9" r:id="rId3"/>
+    <sheet name="qmatrix.11-17.run2.tsv" sheetId="9" r:id="rId3"/>
     <sheet name="RATES_TO_SINGLE" sheetId="10" r:id="rId4"/>
+    <sheet name="qmatrix.12-01.run2.tsv" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="37">
   <si>
     <t>root=0011</t>
   </si>
@@ -139,7 +140,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -183,6 +184,20 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF008000"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
@@ -231,7 +246,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -239,6 +254,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="25">
     <cellStyle name="Gevolgde hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -857,7 +874,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1590,8 +1607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1647,6 +1664,9 @@
       <c r="C3">
         <v>-632.05072800000005</v>
       </c>
+      <c r="D3">
+        <v>-631.14810199999999</v>
+      </c>
       <c r="E3">
         <f t="shared" ref="E3:E6" si="0">MAX(B3:D3)</f>
         <v>-630.67890199999999</v>
@@ -1666,6 +1686,9 @@
       <c r="C4">
         <v>-631.08573999999999</v>
       </c>
+      <c r="D4">
+        <v>-630.67012599999998</v>
+      </c>
       <c r="E4">
         <f t="shared" si="0"/>
         <v>-629.17605800000001</v>
@@ -1717,6 +1740,344 @@
       <c r="F6">
         <f>2*(E$2-E6)</f>
         <v>13.640075999999908</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.110984138383838</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="6">
+        <v>4.8537372727272703E-2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0.16572793939394001</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="5">
+        <v>1.4603939111111099</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>0.76511363333333404</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3">
+        <v>1.0966921313131299</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>1.46685744141414</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4">
+        <v>1.5424542070707099</v>
+      </c>
+      <c r="F4">
+        <v>5.2115910272727204</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>17.7985169252525</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5">
+        <v>8.6805741848484796</v>
+      </c>
+      <c r="H5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>0.15923266060606001</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6">
+        <v>1.4521457474747499</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6">
+        <v>0.43268972828282898</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>17.167019850505</v>
+      </c>
+      <c r="F7">
+        <v>6.4666055434343397</v>
+      </c>
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7">
+        <v>1.48951116161616</v>
+      </c>
+      <c r="I7" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8">
+        <v>0.22078476363636301</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8">
+        <v>0.229683722222222</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8">
+        <v>2.6558696969697002E-3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9">
+        <v>5.2881883979797903</v>
+      </c>
+      <c r="I9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9">
+        <v>15.4808130444444</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>3.4932555010101001</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10">
+        <v>16.3262125888889</v>
+      </c>
+      <c r="J10" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
